--- a/src/assets/files/sample_students.xlsx
+++ b/src/assets/files/sample_students.xlsx
@@ -88,40 +88,40 @@
     <t>DOB CERTIFICATE</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
+    <t>UNIQUE ID</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Foonage</t>
+  </si>
+  <si>
+    <t>Sicko</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>Class IV</t>
-  </si>
-  <si>
-    <t>Prev School</t>
-  </si>
-  <si>
-    <t>xyz@mail.com</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Abc Colony</t>
-  </si>
-  <si>
-    <t>Vehicle name</t>
+    <t xml:space="preserve">Class II </t>
+  </si>
+  <si>
+    <t>U-234</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>abc43@mail</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Near IT Park</t>
   </si>
 </sst>
 </file>
@@ -184,10 +184,10 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -404,8 +404,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
@@ -414,7 +414,7 @@
     <col customWidth="1" min="25" max="25" width="14.13"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,21 +490,23 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2"/>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="D2" s="4">
+        <v>36786.0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>29</v>
@@ -512,41 +514,37 @@
       <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1234.0</v>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3">
-        <v>1.23456789E9</v>
+        <v>8.8523423E7</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3">
-        <v>12345.0</v>
+        <v>34324.0</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="3">
-        <v>123456.0</v>
+        <v>24234.0</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="Q2" s="5"/>
       <c r="R2" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="b">
         <v>1</v>
@@ -554,9 +552,7 @@
       <c r="T2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="U2" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="U2" s="3"/>
       <c r="V2" s="3" t="b">
         <v>1</v>
       </c>
@@ -567,16 +563,13 @@
         <v>0</v>
       </c>
       <c r="Y2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3">
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="D4" s="6"/>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
